--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10126,6 +10126,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>1699004000000</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1699004000000</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1699004000000</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1699004000000</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>1717371000000</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1717371000000</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1717371000000</v>
+      </c>
+      <c r="F389" t="n">
+        <v>1717371000000</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10161,18 +10161,43 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1717371000000</v>
+        <v>1719326000000</v>
       </c>
       <c r="D389" t="n">
-        <v>1717371000000</v>
+        <v>1719326000000</v>
       </c>
       <c r="E389" t="n">
-        <v>1717371000000</v>
+        <v>1719326000000</v>
       </c>
       <c r="F389" t="n">
-        <v>1717371000000</v>
+        <v>1719326000000</v>
       </c>
       <c r="G389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>1707088000000</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1707088000000</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1707088000000</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1707088000000</v>
+      </c>
+      <c r="G390" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10086,16 +10086,16 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1710941000000</v>
+        <v>1718905000000</v>
       </c>
       <c r="D386" t="n">
-        <v>1710941000000</v>
+        <v>1718905000000</v>
       </c>
       <c r="E386" t="n">
-        <v>1710941000000</v>
+        <v>1718905000000</v>
       </c>
       <c r="F386" t="n">
-        <v>1710941000000</v>
+        <v>1718905000000</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1712322000000</v>
+        <v>1720136000000</v>
       </c>
       <c r="D387" t="n">
-        <v>1712322000000</v>
+        <v>1720136000000</v>
       </c>
       <c r="E387" t="n">
-        <v>1712322000000</v>
+        <v>1720136000000</v>
       </c>
       <c r="F387" t="n">
-        <v>1712322000000</v>
+        <v>1720136000000</v>
       </c>
       <c r="G387" t="n">
         <v>0</v>
@@ -10136,16 +10136,16 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1699004000000</v>
+        <v>1707421000000</v>
       </c>
       <c r="D388" t="n">
-        <v>1699004000000</v>
+        <v>1707421000000</v>
       </c>
       <c r="E388" t="n">
-        <v>1699004000000</v>
+        <v>1707421000000</v>
       </c>
       <c r="F388" t="n">
-        <v>1699004000000</v>
+        <v>1707421000000</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -10198,6 +10198,31 @@
         <v>1707088000000</v>
       </c>
       <c r="G390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>1699390000000</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1699390000000</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1699390000000</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1699390000000</v>
+      </c>
+      <c r="G391" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10226,6 +10226,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1728517000000</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1728517000000</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1728517000000</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1728517000000</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10251,6 +10251,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1739516000000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1739516000000</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1739516000000</v>
+      </c>
+      <c r="F393" t="n">
+        <v>1739516000000</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>ECONOMICS:DKM2</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>1725269000000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1725269000000</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1725269000000</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1725269000000</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Denmark_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9469,6 +9469,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>1738223000000</v>
+      </c>
+      <c r="D395">
+        <v>1738223000000</v>
+      </c>
+      <c r="E395">
+        <v>1738223000000</v>
+      </c>
+      <c r="F395">
+        <v>1738223000000</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
